--- a/DONE/DONE ENCODING/ABELA, IMELDA.xlsx
+++ b/DONE/DONE ENCODING/ABELA, IMELDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="147">
   <si>
     <t>PERIOD</t>
   </si>
@@ -860,17 +860,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -880,6 +877,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1802,14 +1802,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1820,16 +1820,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1842,14 +1842,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1875,18 +1875,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>32.25</v>
+        <v>34.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1943,7 +1943,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3365,15 +3365,19 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
+      <c r="A79" s="41">
+        <v>44958</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
@@ -3381,15 +3385,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="41">
+        <v>44986</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
@@ -3397,7 +3405,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="41">
+        <v>45017</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="40"/>
@@ -3974,17 +3984,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4022,7 +4032,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A148" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I14"/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4052,14 +4062,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4070,16 +4080,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4092,14 +4102,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4125,18 +4135,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4193,7 +4203,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>19.75</v>
+        <v>18.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7595,7 +7605,9 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="23"/>
+      <c r="A165" s="47" t="s">
+        <v>145</v>
+      </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
       <c r="D165" s="40"/>
@@ -7611,8 +7623,12 @@
       <c r="K165" s="20"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="41"/>
-      <c r="B166" s="20"/>
+      <c r="A166" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C166" s="13"/>
       <c r="D166" s="40"/>
       <c r="E166" s="9"/>
@@ -7621,10 +7637,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H166" s="40"/>
+      <c r="H166" s="40">
+        <v>1</v>
+      </c>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="20"/>
+      <c r="K166" s="48">
+        <v>44995</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41"/>
